--- a/medicine/Enfance/Muzo_(artiste)/Muzo_(artiste).xlsx
+++ b/medicine/Enfance/Muzo_(artiste)/Muzo_(artiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Philippe Masson, dit Muzo, est un peintre, graveur et dessinateur français, né à Rennes le 4 septembre 1960.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Philippe Masson grandit à Caen. Il y édite en 1980 un fanzine remarqué : le Journal de Placid et Muzo avec Jean-François Duval (« Placid »). C'est de là que vient son nom d'artiste. Il fréquente les Beaux-Arts de Caen et de Paris ainsi que  l'École supérieure d'arts graphiques Penninghen.
 </t>
@@ -544,12 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peinture
-Muzo fait sa première exposition personnelle en 1983 à la galerie Travers (Paris) suivie de nombreuses autres.
-Gravure
-Il pratique régulièrement la gravure (linogravure, eaux-fortes et aquatinte). Il a participé à l'exposition « Regards noirs » à la BnF en 1998.
-Dessin
-À travers une importante production de dessins Muzo a développé un univers très personnel. Par ailleurs il collabore ou a collaboré à de nombreux journaux et magazines : Hara-Kiri, Charlie Mensuel, Métal hurlant, Libération, Le Monde, Le Magazine littéraire etc. Il est également l'auteur d'une trentaine de livres tant pour adultes que pour la jeunesse.
+          <t>Peinture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muzo fait sa première exposition personnelle en 1983 à la galerie Travers (Paris) suivie de nombreuses autres.
 </t>
         </is>
       </c>
@@ -575,10 +590,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gravure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pratique régulièrement la gravure (linogravure, eaux-fortes et aquatinte). Il a participé à l'exposition « Regards noirs » à la BnF en 1998.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muzo_(artiste)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muzo_(artiste)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dessin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À travers une importante production de dessins Muzo a développé un univers très personnel. Par ailleurs il collabore ou a collaboré à de nombreux journaux et magazines : Hara-Kiri, Charlie Mensuel, Métal hurlant, Libération, Le Monde, Le Magazine littéraire etc. Il est également l'auteur d'une trentaine de livres tant pour adultes que pour la jeunesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muzo_(artiste)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muzo_(artiste)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Livres
 Le Journal de Placid et Muzo, 8 numéros, 1980-1983
@@ -606,44 +697,83 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Muzo_(artiste)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Muzo_(artiste)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Expositions personnelles
-Galerie Travers, Paris, 1983
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Expositions personnelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Galerie Travers, Paris, 1983
 Galerie Travers, Paris, 1984
 Bergen, Pays-Bas, 1985
 Galerie Paradis, Paris, 1986
 Galerie Mondineu, Paris, 1987
-Galerie Art Factory, Paris, 2002
-Expositions collectives
-Regards noirs BNF 1998[1]
-Itinéraires graphiques Lorient 2014[2]
-Salon de Montrouge 2014[3]
-Les Cahiers Dessinés La Halle Saint-Pierre 2015[4]</t>
+Galerie Art Factory, Paris, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muzo_(artiste)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muzo_(artiste)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Expositions collectives</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Regards noirs BNF 1998
+Itinéraires graphiques Lorient 2014
+Salon de Montrouge 2014
+Les Cahiers Dessinés La Halle Saint-Pierre 2015</t>
         </is>
       </c>
     </row>
